--- a/data/trans_dic/P54_A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 33,57</t>
+          <t>17,48; 38,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,02; 94,44</t>
+          <t>87,18; 96,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,72; 95,04</t>
+          <t>89,84; 96,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 32,32</t>
+          <t>21,93; 41,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 97,36</t>
+          <t>89,47; 97,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,01; 97,76</t>
+          <t>94,07; 98,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,78; 31,26</t>
+          <t>23,16; 37,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,42; 95,2</t>
+          <t>90,36; 96,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,11</t>
+          <t>93,29; 97,3</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,03; 41,08</t>
+          <t>33,34; 46,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,22; 91,78</t>
+          <t>79,51; 92,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,27; 94,98</t>
+          <t>87,8; 94,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,62; 40,3</t>
+          <t>33,51; 45,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,19; 94,48</t>
+          <t>90,66; 95,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,73; 97,01</t>
+          <t>92,3; 97,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,84; 39,39</t>
+          <t>34,67; 43,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,1; 92,74</t>
+          <t>86,79; 93,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,2; 95,51</t>
+          <t>91,77; 95,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,78%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,38; 51,24</t>
+          <t>42,24; 57,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,63; 92,96</t>
+          <t>82,33; 93,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,99; 96,81</t>
+          <t>90,32; 96,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,49; 59,27</t>
+          <t>53,47; 66,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,65; 95,96</t>
+          <t>90,82; 96,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,24; 98,43</t>
+          <t>93,74; 98,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,62; 53,97</t>
+          <t>50,32; 59,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 93,91</t>
+          <t>88,25; 94,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,71; 97,23</t>
+          <t>93,45; 97,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>93,79%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 41,18</t>
+          <t>32,71; 40,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,25; 91,54</t>
+          <t>85,95; 93,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,97; 94,77</t>
+          <t>85,96; 95,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 42,62</t>
+          <t>32,15; 39,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,75; 94,83</t>
+          <t>87,97; 94,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,37; 97,03</t>
+          <t>92,57; 97,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 40,85</t>
+          <t>33,37; 38,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 92,99</t>
+          <t>88,34; 92,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,41; 95,56</t>
+          <t>90,64; 95,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>93,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>96,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>91,43%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35,02; 41,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>86,74; 91,95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91,08; 94,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 42,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>91,07; 94,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94,79; 97,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,1; 41,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89,53; 92,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 95,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>467.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55272</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>313175</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>492348</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62170</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>395622</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>606175</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>117442</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>708797</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1098523</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35083; 76484</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>293291; 325634</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>469572; 505390</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43795; 82783</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>375712; 408045</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>588593; 617037</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>92753; 148466</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>683414; 727674</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1071318; 1117403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>965.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>234983</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>814831</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1107801</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>248202</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>919463</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1168576</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>483185</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1734294</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2276377</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>199136; 275805</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>734621; 852518</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1052811; 1137818</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>214450; 289434</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>889381; 941037</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1129688; 1188555</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>428859; 537588</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1653431; 1780878</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2223522; 2318427</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>780.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>216064</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>636570</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>797544</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>302802</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>726186</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>903733</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>518865</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1362756</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1701277</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>184195; 249394</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>589150; 666830</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>759954; 816085</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>269789; 333843</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>698604; 744539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>876250; 918443</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>473288; 563214</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1310302; 1403519</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1659817; 1728471</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>886.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>614.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>701280</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1289437</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>780465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>615354</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1245951</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>724766</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1316634</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2535388</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1505232</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>635101; 782423</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1224967; 1331317</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>730394; 807366</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>556127; 675088</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1200128; 1283380</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>699128; 738970</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1225281; 1416962</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2464294; 2588442</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1454755; 1539453</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1258.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1238.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1568.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1052.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2279.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2826.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1207598</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3054013</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3178158</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1228527</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3287221</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3403249</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2436126</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6341233</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6581408</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1112313; 1304128</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2950205; 3127384</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3108314; 3240723</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1144347; 1305915</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3218961; 3336495</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3355287; 3436521</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2318520; 2567991</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6209478; 6428186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6494250; 6646374</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>